--- a/media/utils/tmplexcel/_blank.xlsx
+++ b/media/utils/tmplexcel/_blank.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView xWindow="600" yWindow="570" windowWidth="24615" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluation Version" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Evaluation Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterate="1" iterateCount="1000" iterateDelta="0.01"/>
+  <calcPr calcId="124519" iterate="1" iterateCount="1000" iterateDelta="0.01"/>
 </workbook>
 </file>
 
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -47,6 +49,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -110,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,7 +148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,39 +356,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2A503678-FCFE-886E-42C3-D41E8B71D5FE}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" customHeight="1" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="22.5" customHeight="1"/>
   <sheetData>
-    <row r="2" customHeight="1" ht="22.5">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="2:2" ht="22.5" customHeight="1">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:2" ht="22.5" customHeight="1">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{BB2B5D1E-2648-0EE6-12A6-92C9986881B2}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:T200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8515625" customHeight="1" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;C&amp;R</oddHeader>
